--- a/data/trans_bre/P57GLOBAL_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.771650666086144</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.848335241955225</v>
+        <v>3.848335241955208</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03193235064174035</v>
@@ -649,7 +649,7 @@
         <v>0.02276838980833707</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.08048501326893059</v>
+        <v>0.08048501326893022</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.803134569894155</v>
+        <v>-3.976187543966824</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.534220057482062</v>
+        <v>-1.501208519115006</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.65720792960563</v>
+        <v>-3.552268659220696</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.132819620841781</v>
+        <v>-6.572085004669145</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.06870624435883163</v>
+        <v>-0.05949264945188911</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.02396925373590271</v>
+        <v>-0.02335288527571648</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.04565538475991629</v>
+        <v>-0.04469378018334475</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1159027683199721</v>
+        <v>-0.1247430932930876</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.252665664657991</v>
+        <v>8.066849755704416</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.3961733496522</v>
+        <v>11.22473502995407</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.353463842868335</v>
+        <v>7.615745783404362</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.77481861630788</v>
+        <v>15.03560070648897</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1444186757159332</v>
+        <v>0.1419313694876487</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2003078558115794</v>
+        <v>0.1967186000059203</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09811762659036014</v>
+        <v>0.1019121966072832</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3635045277962229</v>
+        <v>0.3642592318380349</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.4890695574393256</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-7.574231912702523</v>
+        <v>-7.574231912702512</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02182097262837101</v>
@@ -749,7 +749,7 @@
         <v>-0.005996252179503767</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1177688886372196</v>
+        <v>-0.1177688886372194</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.035887173203371</v>
+        <v>-3.317854567993752</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.313602119421985</v>
+        <v>2.442745244007989</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-5.095697129411231</v>
+        <v>-5.253285501421218</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-15.2175481971187</v>
+        <v>-15.56228242093428</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0581601596308112</v>
+        <v>-0.04624590089300789</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0348559566447415</v>
+        <v>0.03665337921349096</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06088271661186494</v>
+        <v>-0.06276335813443484</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2218386427334332</v>
+        <v>-0.2257197209594285</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.505948135696701</v>
+        <v>6.459707584328539</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.901788071102</v>
+        <v>12.96814497447576</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.64372837610181</v>
+        <v>4.25876263975828</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.1005308997631945</v>
+        <v>-0.309587275267219</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09914950783461025</v>
+        <v>0.09913710290440178</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2066774887299591</v>
+        <v>0.2079758113796447</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05950126327580706</v>
+        <v>0.05292599606495427</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.0005487763271438959</v>
+        <v>-0.005936021259497666</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.2700091253000858</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.585753057765683</v>
+        <v>-2.585753057765694</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01216263946057126</v>
@@ -849,7 +849,7 @@
         <v>0.003278354240571529</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.03967954723253372</v>
+        <v>-0.03967954723253389</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.302195610723214</v>
+        <v>-4.134464752017556</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7353718647008767</v>
+        <v>-0.6106465751554921</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.290249275786484</v>
+        <v>-4.221603764280723</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.544138498307793</v>
+        <v>-8.590209865484708</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.05883407200713811</v>
+        <v>-0.05625260907836606</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.009629951893331533</v>
+        <v>-0.008161984450911429</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.05042805639344596</v>
+        <v>-0.04942056914536592</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1114196849777391</v>
+        <v>-0.1227245851174632</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.321734844472274</v>
+        <v>6.032190295932007</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.948057283825973</v>
+        <v>8.921741129330041</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.398592552891085</v>
+        <v>4.389879315990043</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.543782203269643</v>
+        <v>2.695245482149488</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.09488998953132992</v>
+        <v>0.08987882929055591</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1323816240533834</v>
+        <v>0.1305952444299886</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05501770185178891</v>
+        <v>0.05426428100560141</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.05754193439410212</v>
+        <v>0.04427032036289986</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.085931024646893</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.210257392976456</v>
+        <v>2.210257392976445</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.02347348807684618</v>
@@ -949,7 +949,7 @@
         <v>0.03745644385553824</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.03463129625041286</v>
+        <v>0.03463129625041268</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-7.647468367452914</v>
+        <v>-7.183805047207938</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.658706912105457</v>
+        <v>4.091589552425921</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.16742594342427</v>
+        <v>-1.301572329466092</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.440638594639954</v>
+        <v>-2.692135712484321</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1016081741598515</v>
+        <v>-0.09498953783256647</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06423203477922194</v>
+        <v>0.05740247001053895</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01378384193632193</v>
+        <v>-0.01443204596923459</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03616302087843997</v>
+        <v>-0.04086299038852355</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.899751799362199</v>
+        <v>4.339396071829628</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.17467816614675</v>
+        <v>14.32928349708384</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.371551461890752</v>
+        <v>7.301894904336695</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.967066819097788</v>
+        <v>7.154243919676555</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05491292670754562</v>
+        <v>0.06355233574435044</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2269178619607303</v>
+        <v>0.2121596717954213</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09213858215416658</v>
+        <v>0.09294181422879459</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1131884046903417</v>
+        <v>0.1178337646041747</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>3.294460128369148</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.06998964891091</v>
+        <v>4.069989648910899</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06947804227977426</v>
@@ -1049,7 +1049,7 @@
         <v>0.03940002195481435</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.0589409085987984</v>
+        <v>0.05894090859879824</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7255104462193476</v>
+        <v>-0.8456074161689552</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.866124949664523</v>
+        <v>1.47679019270736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.403775697471934</v>
+        <v>-1.397690322920876</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.1102235501433188</v>
+        <v>-0.4994415299520428</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.009819435654635304</v>
+        <v>-0.01105776913209085</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0282670211052501</v>
+        <v>0.0199456258092876</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.01583115352160776</v>
+        <v>-0.01594957266283811</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.001445816565753288</v>
+        <v>-0.006734104666345738</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.04801587617785</v>
+        <v>11.16566732642893</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.14744319905377</v>
+        <v>14.21033867384696</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.396293291606254</v>
+        <v>8.214260102086165</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.624639617527796</v>
+        <v>8.809522789838354</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1624185059394795</v>
+        <v>0.1598554637473904</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2217851677287827</v>
+        <v>0.2241572507191839</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1043536922553952</v>
+        <v>0.1011640823916087</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1306407357561149</v>
+        <v>0.1348266216580632</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>9.559561348152846</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.4250032803947201</v>
+        <v>0.425003280394709</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005967643840472413</v>
@@ -1149,7 +1149,7 @@
         <v>0.1187046932904303</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.006311198026546282</v>
+        <v>0.006311198026546117</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-5.262468321129223</v>
+        <v>-5.483525469376877</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.107649801975898</v>
+        <v>-3.715412134379717</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.376044260164069</v>
+        <v>3.652732401669138</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-4.354357568561962</v>
+        <v>-4.466944296289708</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.06541604446396805</v>
+        <v>-0.06692725587669693</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.05227464187072724</v>
+        <v>-0.04746412662387434</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05170066659771332</v>
+        <v>0.04385600134114479</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.06169290887934639</v>
+        <v>-0.06422227643305564</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.897434498239667</v>
+        <v>7.14769144873019</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>9.597961927627113</v>
+        <v>9.991444683883495</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.4331109257605</v>
+        <v>14.94905039861968</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.639644298412803</v>
+        <v>5.935439071494312</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09321448075093959</v>
+        <v>0.09765955435578576</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1364020468353953</v>
+        <v>0.1436460809922348</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2010528929499869</v>
+        <v>0.1947556673689727</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.0876954303012529</v>
+        <v>0.09149465305253697</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>4.362589695522634</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.974309751874926</v>
+        <v>2.974309751874904</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01054258068217187</v>
@@ -1249,7 +1249,7 @@
         <v>0.05094454128111726</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.04099157352254438</v>
+        <v>0.04099157352254406</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.24636554985561</v>
+        <v>-5.883622692335529</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.9124389072823</v>
+        <v>-5.150083640581061</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.5737433726408332</v>
+        <v>-0.9152806326085384</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.230595062037631</v>
+        <v>-2.149105065491669</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.07246315322960621</v>
+        <v>-0.06969288847814671</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.0726959930746478</v>
+        <v>-0.06261233560350249</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.00635591881514387</v>
+        <v>-0.01013062206759873</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.02876381615429602</v>
+        <v>-0.02864826523984549</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.776702797595888</v>
+        <v>8.122476771634034</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.088784471336265</v>
+        <v>9.004254777480458</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.169172602583172</v>
+        <v>9.436236840644083</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.452028103213813</v>
+        <v>8.152058850687173</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1007224218934265</v>
+        <v>0.1057255879067727</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1242670660353994</v>
+        <v>0.1259561993497819</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1115416278258412</v>
+        <v>0.113987907630703</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1241724409657912</v>
+        <v>0.1171237067487811</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>2.88134772575277</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9882167630618333</v>
+        <v>0.9882167630618222</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02646873833756958</v>
@@ -1349,7 +1349,7 @@
         <v>0.03517856770355817</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.01536179244209164</v>
+        <v>0.01536179244209147</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.2537779414235032</v>
+        <v>-0.2467497475477217</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.097707137643384</v>
+        <v>4.171283558881444</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.177031773334716</v>
+        <v>0.8900245611028179</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.338088540502614</v>
+        <v>-1.349928458322315</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.00358010557111627</v>
+        <v>-0.003394210479591742</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05849161065987684</v>
+        <v>0.05939946023323849</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01424076274828994</v>
+        <v>0.01068441786207376</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.02034123481150011</v>
+        <v>-0.02047256716258623</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.024409413482974</v>
+        <v>4.195553392874501</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.664144064773915</v>
+        <v>8.546607415067504</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.734234016230136</v>
+        <v>4.688907954898143</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.276213867602379</v>
+        <v>3.364956696673918</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.05751661896004386</v>
+        <v>0.06124635825815861</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1291793689797112</v>
+        <v>0.1265328955558792</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05875185526284415</v>
+        <v>0.05777915794962067</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.05178321752347959</v>
+        <v>0.05342154178804824</v>
       </c>
     </row>
     <row r="28">
